--- a/financial.xlsx
+++ b/financial.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="8400" windowWidth="10000" windowHeight="9440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="8480" windowWidth="10000" windowHeight="9440" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>h/s</t>
   </si>
@@ -42,6 +44,24 @@
   </si>
   <si>
     <t>ns</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>kos</t>
+  </si>
+  <si>
+    <t>inter</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>out</t>
   </si>
 </sst>
 </file>
@@ -88,9 +108,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
@@ -371,7 +392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -795,4 +816,124 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5800</v>
+      </c>
+      <c r="B2">
+        <v>350</v>
+      </c>
+      <c r="C2">
+        <v>250</v>
+      </c>
+      <c r="D2">
+        <v>900</v>
+      </c>
+      <c r="E2">
+        <f>A2-B2-C2-D2</f>
+        <v>4300</v>
+      </c>
+      <c r="F2">
+        <f>B2+C2+D2</f>
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>6500</v>
+      </c>
+      <c r="B1" s="1">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D1" s="1">
+        <f>C1*B1</f>
+        <v>100000</v>
+      </c>
+      <c r="F1" s="2">
+        <f>D1-A1-A2-A3</f>
+        <v>61500</v>
+      </c>
+      <c r="G1" s="2">
+        <f>F1*20</f>
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>25000</v>
+      </c>
+      <c r="B2">
+        <v>4500</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <f>120*5</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>7000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/financial.xlsx
+++ b/financial.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>h/s</t>
   </si>
@@ -62,6 +62,21 @@
   </si>
   <si>
     <t>out</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>tambahan makan euy</t>
   </si>
 </sst>
 </file>
@@ -71,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="42" formatCode="_(&quot;IDR&quot;* #,##0_);_(&quot;IDR&quot;* \(#,##0\);_(&quot;IDR&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,6 +97,22 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,17 +135,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -415,402 +450,402 @@
         <v>2</v>
       </c>
       <c r="F1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1">
         <v>12</v>
       </c>
       <c r="H1">
         <f>G1*F1</f>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1">
         <f>H1</f>
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>12</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H25" si="0">G2*F2</f>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I2" s="1">
         <f>H2+(10/100*I1)+I1</f>
-        <v>100.8</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>12</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I3" s="1">
         <f>H3+(10/100*I2)+I2</f>
-        <v>158.88</v>
+        <v>198.6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>12</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I25" si="1">H4+(10/100*I3)+I3</f>
-        <v>222.768</v>
+        <v>278.45999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <v>12</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>293.04480000000001</v>
+        <v>366.30599999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>12</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>370.34928000000002</v>
+        <v>462.9366</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>12</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>455.38420800000006</v>
+        <v>569.23026000000004</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>12</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>548.9226288000001</v>
+        <v>686.15328600000009</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>12</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>651.81489168000007</v>
+        <v>814.76861460000009</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <v>12</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>764.99638084800006</v>
+        <v>956.2454760600001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>12</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>889.4960189328001</v>
+        <v>1111.8700236660002</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <v>12</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>1026.4456208260801</v>
+        <v>1283.0570260326003</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>12</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>1177.0901829086881</v>
+        <v>1471.3627286358603</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>12</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>1342.799201199557</v>
+        <v>1678.4990014994464</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15">
         <v>12</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>1525.0791213195128</v>
+        <v>1906.3489016493911</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>12</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>1725.5870334514641</v>
+        <v>2156.9837918143303</v>
       </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17">
         <v>12</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="1"/>
-        <v>1946.1457367966104</v>
+        <v>2432.6821709957635</v>
       </c>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18">
         <v>12</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="1"/>
-        <v>2188.7603104762716</v>
+        <v>2735.9503880953398</v>
       </c>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>12</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>2455.6363415238989</v>
+        <v>3069.5454269048737</v>
       </c>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>12</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I20" s="1">
         <f>H20+(10/100*I19)+I19</f>
-        <v>2749.1999756762889</v>
+        <v>3436.4999695953611</v>
       </c>
     </row>
     <row r="21" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21">
         <v>12</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
-        <v>3072.1199732439177</v>
+        <v>3840.1499665548972</v>
       </c>
     </row>
     <row r="22" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22">
         <v>12</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
-        <v>3427.3319705683093</v>
+        <v>4284.1649632103872</v>
       </c>
     </row>
     <row r="23" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23">
         <v>12</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>3818.06516762514</v>
+        <v>4772.5814595314259</v>
       </c>
     </row>
     <row r="24" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24">
         <v>12</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>4247.8716843876537</v>
+        <v>5309.8396054845689</v>
       </c>
     </row>
     <row r="25" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25">
         <v>12</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="1"/>
-        <v>4720.6588528264192</v>
+        <v>5900.8235660330256</v>
       </c>
     </row>
   </sheetData>
@@ -820,15 +855,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -848,7 +883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5800</v>
       </c>
@@ -869,18 +904,22 @@
         <f>B2+C2+D2</f>
         <v>1500</v>
       </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="99" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -905,12 +944,12 @@
         <v>100000</v>
       </c>
       <c r="F1" s="2">
-        <f>D1-A1-A2-A3</f>
-        <v>61500</v>
+        <f>D1-A1-A2-A3-A4</f>
+        <v>57000</v>
       </c>
       <c r="G1" s="2">
         <f>F1*20</f>
-        <v>1230000</v>
+        <v>1140000</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -931,6 +970,130 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <f>SUM(A1:A4)</f>
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
